--- a/materials/manuscript/SimNet_Table.xlsx
+++ b/materials/manuscript/SimNet_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Theodore/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Theodore/Documents/Dropbox/Work/Projects/SimNet/materials/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F3EDE4-EBF3-714E-A4A0-B1875FF1E5F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C531AFA-BA13-5241-960C-5216405B5111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{84304975-B6D6-0343-B938-A27372D2E351}"/>
   </bookViews>
@@ -69,51 +69,109 @@
     <t>Central European grasslands</t>
   </si>
   <si>
+    <t>Forest1</t>
+  </si>
+  <si>
+    <t>Parameterization</t>
+  </si>
+  <si>
+    <t>Forest2</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>1 ha</t>
+  </si>
+  <si>
+    <t>Richtersveld, South Africa</t>
+  </si>
+  <si>
+    <t>Reineking et al. 2006</t>
+  </si>
+  <si>
+    <t>Trade-off between rooting depth and resource uptake rate</t>
+  </si>
+  <si>
+    <t>Trade-off between competitive ability for soil nitrate and nitrogen-use efficiency</t>
+  </si>
+  <si>
+    <t>Trade-offs between competition and storage ability for water, mediated through stochastic variation in water supply rate</t>
+  </si>
+  <si>
+    <t>Individual-based, spatially-explicit model</t>
+  </si>
+  <si>
+    <t>Field data</t>
+  </si>
+  <si>
+    <t>Field data (see Weiss et al. 2014)</t>
+  </si>
+  <si>
+    <t>Theoretical</t>
+  </si>
+  <si>
+    <t>Barro Colorado Island, Panama</t>
+  </si>
+  <si>
+    <t>Demographic trade-offs derived from forest inventory data</t>
+  </si>
+  <si>
+    <t>May et al. 2009, Weiss et al. 2014</t>
+  </si>
+  <si>
+    <t>Rüger et al. 2020</t>
+  </si>
+  <si>
+    <t>Spatially-implicit demographic cohort model</t>
+  </si>
+  <si>
+    <t>Dryland</t>
+  </si>
+  <si>
+    <t>Temperate grasslands</t>
+  </si>
+  <si>
+    <t>Field data (functional traits)</t>
+  </si>
+  <si>
+    <t>Maréchaux &amp; Chave 2017</t>
+  </si>
+  <si>
+    <t>Demographic trade-offs; demography-driven niche differences within a vertical canopy gradient; external seed input</t>
+  </si>
+  <si>
+    <t>Trait-driven among-species niche differences within a heterogeneous environment, both vertically (canopy gradient) and horizontally (gap dynamics); external seed input</t>
+  </si>
+  <si>
+    <r>
+      <t>1 m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>9 m</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>Forest1</t>
-  </si>
-  <si>
-    <t>Parameterization</t>
-  </si>
-  <si>
-    <t>Forest2</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>1 ha</t>
-  </si>
-  <si>
-    <t>Richtersveld, South Africa</t>
-  </si>
-  <si>
-    <t>Reineking et al. 2006</t>
-  </si>
-  <si>
-    <t>Trade-off between rooting depth and resource uptake rate</t>
-  </si>
-  <si>
-    <t>Trade-off between competitive ability for soil nitrate and nitrogen-use efficiency</t>
-  </si>
-  <si>
-    <t>Trade-offs between competition and storage ability for water, mediated through stochastic variation in water supply rate</t>
-  </si>
-  <si>
-    <t>Individual-based, spatially-explicit model</t>
   </si>
   <si>
     <r>
@@ -122,78 +180,23 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
-    <t>Field data</t>
-  </si>
-  <si>
-    <t>Field data (see Weiss et al. 2014)</t>
-  </si>
-  <si>
-    <t>Theoretical</t>
-  </si>
-  <si>
-    <t>Barro Colorado Island, Panama</t>
-  </si>
-  <si>
-    <t>Demographic trade-offs derived from forest inventory data</t>
-  </si>
-  <si>
-    <t>May et al. 2009, Weiss et al. 2014</t>
-  </si>
-  <si>
-    <t>Rüger et al. 2020</t>
-  </si>
-  <si>
-    <t>Spatially-implicit demographic cohort model</t>
-  </si>
-  <si>
-    <t>Dryland</t>
-  </si>
-  <si>
-    <t>Temperate grasslands</t>
-  </si>
-  <si>
-    <r>
-      <t>1 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Field data (functional traits)</t>
-  </si>
-  <si>
-    <t>Maréchaux &amp; Chave 2017</t>
-  </si>
-  <si>
-    <t>Demographic trade-offs; demography-driven niche differences within a vertical canopy gradient; external seed input</t>
-  </si>
-  <si>
-    <t>Trait-driven among-species niche differences within a heterogeneous environment, both vertically (canopy gradient) and horizontally (gap dynamics); external seed input</t>
-  </si>
-  <si>
-    <t>Trait-driven niche and fitness differences defining competion above- and belowground; CNDD</t>
+    <t>Trait-driven niche and fitness differences defining competition above- and belowground; CNDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,10 +220,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -251,7 +268,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,10 +594,10 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -586,165 +609,165 @@
     <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="22">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="35" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="35" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="35" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="35" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="44">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="44">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="66">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="44">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
